--- a/data/flow_stack_samples/stack_list.xlsx
+++ b/data/flow_stack_samples/stack_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lnkassa/Desktop/STACK1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lnkassa/batteryarchive-agent/data/flow_stack_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE6F5C2-6FC0-9D49-B139-7CA068C00249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A7581-9EA5-4640-BB3B-B32B572FC6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="3580" windowWidth="23260" windowHeight="12460" xr2:uid="{07EF3D65-9BA3-43DB-B014-0F8C59FBB292}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>2 H23 carbon paper + 1 Elat H</t>
   </si>
   <si>
-    <t>PNNL_interdigitated_15cell_10cm2_N212_V3+/V5+_rate</t>
-  </si>
-  <si>
     <t>test type</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>PNNL</t>
+  </si>
+  <si>
+    <t>PNNL_interdigitated_15cell_10cm2_N212_V3+/V5+_0.02</t>
   </si>
 </sst>
 </file>
@@ -527,14 +527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4900B09B-8105-4727-A8D5-7A7308C12DCF}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="25.5" bestFit="1" customWidth="1"/>
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>7</v>
@@ -569,37 +569,37 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>1</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
@@ -661,7 +661,7 @@
         <v>17</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>5</v>
